--- a/public/db/SETOR.xlsx
+++ b/public/db/SETOR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>CODIGO</t>
   </si>
@@ -156,9 +156,6 @@
     <t>0022</t>
   </si>
   <si>
-    <t>MAT. PRIMA DANPLAS</t>
-  </si>
-  <si>
     <t>0023</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>0026</t>
   </si>
   <si>
-    <t>MAT. PRIMA CEAL</t>
-  </si>
-  <si>
     <t>0027</t>
   </si>
   <si>
@@ -300,9 +294,6 @@
     <t>0046</t>
   </si>
   <si>
-    <t>SOU MAIS - CEAL</t>
-  </si>
-  <si>
     <t>0047</t>
   </si>
   <si>
@@ -348,9 +339,6 @@
     <t>0054</t>
   </si>
   <si>
-    <t>MAN. MISTURADOR</t>
-  </si>
-  <si>
     <t>0055</t>
   </si>
   <si>
@@ -366,9 +354,6 @@
     <t>0057</t>
   </si>
   <si>
-    <t>EMP MITSUBISHI</t>
-  </si>
-  <si>
     <t>0058</t>
   </si>
   <si>
@@ -378,9 +363,6 @@
     <t>0059</t>
   </si>
   <si>
-    <t>EXTRUSORA 05</t>
-  </si>
-  <si>
     <t>0060</t>
   </si>
   <si>
@@ -438,15 +420,9 @@
     <t>0069</t>
   </si>
   <si>
-    <t>COMPRESSOR CEAL</t>
-  </si>
-  <si>
     <t>0070</t>
   </si>
   <si>
-    <t>COMPR. MICRONIZACAO</t>
-  </si>
-  <si>
     <t>0071</t>
   </si>
   <si>
@@ -457,6 +433,198 @@
   </si>
   <si>
     <t>EMPILH YALE</t>
+  </si>
+  <si>
+    <t>RESINA DANPLAS</t>
+  </si>
+  <si>
+    <t>RESINA CEAL</t>
+  </si>
+  <si>
+    <t>REFORMA - SOU MAIS - CEAL</t>
+  </si>
+  <si>
+    <t>MAN MISTURADOR</t>
+  </si>
+  <si>
+    <t>EMPILH MITSUB</t>
+  </si>
+  <si>
+    <t>COMPR. ATLAS</t>
+  </si>
+  <si>
+    <t>COMPR. CEAL</t>
+  </si>
+  <si>
+    <t>COMPR. MICRON/PORTAS</t>
+  </si>
+  <si>
+    <t>TRATOR MASSEY 50</t>
+  </si>
+  <si>
+    <t>TRATOR MASSEY 65</t>
+  </si>
+  <si>
+    <t>GERADOR SCANIA CEAL</t>
+  </si>
+  <si>
+    <t>TRATOR AGRALE</t>
+  </si>
+  <si>
+    <t>CAMINHAO BWJ-2185</t>
+  </si>
+  <si>
+    <t>CAMINHAO DCA-5A50</t>
+  </si>
+  <si>
+    <t>CAMINHAO BWU-8817</t>
+  </si>
+  <si>
+    <t>CAMINHAO BTT-0141</t>
+  </si>
+  <si>
+    <t>EMPILH DALIAN CEAL</t>
+  </si>
+  <si>
+    <t>RESINA PVC (M) DANPLAS</t>
+  </si>
+  <si>
+    <t>PEUGEOT</t>
+  </si>
+  <si>
+    <t>F-1000</t>
+  </si>
+  <si>
+    <t>REFORMA MQS SOU MAIS</t>
+  </si>
+  <si>
+    <t>COMPR. CHIAPERINI W-900</t>
+  </si>
+  <si>
+    <t>ADITIVOS DANPLAS</t>
+  </si>
+  <si>
+    <t>ADITIVOS CEAL</t>
+  </si>
+  <si>
+    <t>COMPONENTES PORTAS</t>
+  </si>
+  <si>
+    <t>COMPONENTES DANPLAS</t>
+  </si>
+  <si>
+    <t>SECAR RESINA</t>
+  </si>
+  <si>
+    <t>PROJETO GEO-250</t>
+  </si>
+  <si>
+    <t>COMBUSTIVEL</t>
+  </si>
+  <si>
+    <t>COMB CLAUDIO</t>
+  </si>
+  <si>
+    <t>COMB LAUDEIR</t>
+  </si>
+  <si>
+    <t>COMB ADEMIR</t>
+  </si>
+  <si>
+    <t>COMB DIRETORIA</t>
+  </si>
+  <si>
+    <t>COMPONENTES CEAL</t>
+  </si>
+  <si>
+    <t>BANHEIRA 06 NOVA</t>
+  </si>
+  <si>
+    <t>MANUT GELADEIRA FRIGEL</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0091</t>
+  </si>
+  <si>
+    <t>0092</t>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0094</t>
+  </si>
+  <si>
+    <t>0095</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>0098</t>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>0100</t>
   </si>
 </sst>
 </file>
@@ -948,7 +1116,7 @@
   <dimension ref="A1:C2655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1145,456 +1313,658 @@
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="C74" s="2"/>
     </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C78" s="2"/>
     </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C80" s="2"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C83" s="2"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C89" s="2"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="C91" s="2"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C94" s="2"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="C99" s="2"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C110" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
